--- a/nodes_source_analyses/buildings/buildings_space_heater_heatpump_air_water_network_gas.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_space_heater_heatpump_air_water_network_gas.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -30,8 +35,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -268,9 +276,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -474,15 +479,39 @@
   <si>
     <t>ETM Library URL</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">import:node NODE="nodename" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the button to update the node attributes on ETSource. 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -646,11 +675,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -687,6 +711,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1305,7 +1335,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1316,23 +1346,23 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1352,10 +1382,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1388,7 +1418,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1401,17 +1431,17 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1448,42 +1478,42 @@
     <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1747,81 +1777,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2258,52 +2223,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="48.75" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2312,29 +2277,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="81" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="82"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="83"/>
       <c r="C10" s="84"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="83" t="s">
         <v>62</v>
@@ -2343,33 +2308,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="83"/>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="83"/>
       <c r="C13" s="86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="83"/>
       <c r="C14" s="84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="83"/>
       <c r="C15" s="84"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="83" t="s">
         <v>67</v>
@@ -2378,49 +2343,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="83"/>
       <c r="C17" s="88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="83"/>
       <c r="C18" s="89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="83"/>
       <c r="C19" s="90" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="91"/>
       <c r="C20" s="92" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="91"/>
       <c r="C21" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="91"/>
       <c r="C22" s="94" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="91"/>
       <c r="C23" s="95" t="s">
         <v>75</v>
@@ -2429,49 +2394,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="130" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C2" s="131"/>
       <c r="D2" s="131"/>
@@ -2479,7 +2439,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="133"/>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -2487,7 +2447,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="136"/>
       <c r="C4" s="137"/>
       <c r="D4" s="137"/>
@@ -2495,10 +2455,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2509,7 +2469,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="96"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2530,7 +2490,7 @@
       </c>
       <c r="J7" s="103"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2541,10 +2501,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2554,10 +2514,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2573,10 +2533,10 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -2592,10 +2552,10 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2611,7 +2571,7 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>32</v>
@@ -2631,7 +2591,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>34</v>
@@ -2651,10 +2611,10 @@
       <c r="J14" s="104"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>4</v>
@@ -2671,7 +2631,7 @@
       <c r="J15" s="104"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>9</v>
@@ -2691,7 +2651,7 @@
       <c r="J16" s="104"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>37</v>
@@ -2711,7 +2671,7 @@
       <c r="J17" s="104"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>38</v>
@@ -2731,7 +2691,7 @@
       <c r="J18" s="104"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>39</v>
@@ -2752,7 +2712,7 @@
       </c>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>40</v>
@@ -2774,7 +2734,7 @@
       </c>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
       <c r="C21" s="74"/>
       <c r="D21" s="99"/>
@@ -2785,10 +2745,10 @@
       <c r="I21" s="32"/>
       <c r="J21" s="104"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="99"/>
       <c r="E22" s="100"/>
@@ -2798,7 +2758,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="104"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>41</v>
@@ -2820,7 +2780,7 @@
       </c>
       <c r="J23" s="104"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>42</v>
@@ -2841,7 +2801,7 @@
       </c>
       <c r="J24" s="104"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>11</v>
@@ -2862,7 +2822,7 @@
       </c>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>43</v>
@@ -2883,7 +2843,7 @@
       </c>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>44</v>
@@ -2905,7 +2865,7 @@
       </c>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>45</v>
@@ -2927,7 +2887,7 @@
       </c>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>46</v>
@@ -2948,7 +2908,7 @@
       </c>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>49</v>
@@ -2969,7 +2929,7 @@
       </c>
       <c r="J30" s="104"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>36</v>
@@ -2988,7 +2948,7 @@
       </c>
       <c r="J31" s="104"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="33"/>
       <c r="D32" s="19"/>
@@ -2999,7 +2959,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="104"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="14" t="s">
         <v>7</v>
@@ -3012,7 +2972,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>35</v>
@@ -3034,7 +2994,7 @@
       </c>
       <c r="J34" s="104"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="126" t="s">
         <v>47</v>
@@ -3056,7 +3016,7 @@
       </c>
       <c r="J35" s="104"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>48</v>
@@ -3078,7 +3038,7 @@
       </c>
       <c r="J36" s="104"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>33</v>
@@ -3097,10 +3057,10 @@
       </c>
       <c r="J37" s="104"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>4</v>
@@ -3116,10 +3076,10 @@
       </c>
       <c r="J38" s="104"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>4</v>
@@ -3135,10 +3095,10 @@
       </c>
       <c r="J39" s="104"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>4</v>
@@ -3154,10 +3114,10 @@
       </c>
       <c r="J40" s="104"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>4</v>
@@ -3173,10 +3133,10 @@
       </c>
       <c r="J41" s="104"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>4</v>
@@ -3192,7 +3152,7 @@
       </c>
       <c r="J42" s="104"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -3209,43 +3169,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3260,24 +3183,23 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="60" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="60" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="60" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="60" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="60" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="8" width="4" style="60" customWidth="1"/>
     <col min="9" max="9" width="16" style="60" customWidth="1"/>
     <col min="10" max="10" width="3" style="61" customWidth="1"/>
     <col min="11" max="11" width="60" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="60"/>
+    <col min="12" max="16384" width="10.7109375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -3289,10 +3211,10 @@
       <c r="J2" s="64"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="2:11" s="21" customFormat="1">
+    <row r="3" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3306,10 +3228,10 @@
       <c r="I3" s="109"/>
       <c r="J3" s="58"/>
       <c r="K3" s="109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3321,10 +3243,10 @@
       <c r="J4" s="108"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3335,10 +3257,10 @@
       <c r="J5" s="10"/>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65"/>
       <c r="C6" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -3354,7 +3276,7 @@
       <c r="J6" s="67"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -3366,7 +3288,7 @@
       <c r="J7" s="71"/>
       <c r="K7" s="110"/>
     </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1">
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="65"/>
       <c r="C8" s="29" t="s">
         <v>7</v>
@@ -3380,10 +3302,10 @@
       <c r="J8" s="12"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="2:11" ht="16" thickBot="1">
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
       <c r="C9" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -3399,10 +3321,10 @@
       <c r="J9" s="12"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="65"/>
       <c r="C10" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -3418,7 +3340,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="65"/>
       <c r="C11" s="75" t="s">
         <v>5</v>
@@ -3437,7 +3359,7 @@
       <c r="J11" s="72"/>
       <c r="K11" s="115"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -3449,10 +3371,10 @@
       <c r="J12" s="72"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="65"/>
       <c r="C13" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3463,10 +3385,10 @@
       <c r="J13" s="12"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="65"/>
       <c r="C14" s="105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3482,7 +3404,7 @@
       <c r="J14" s="71"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65"/>
       <c r="C15" s="76" t="s">
         <v>8</v>
@@ -3490,7 +3412,7 @@
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
       <c r="F15" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="79">
         <v>857.68</v>
@@ -3500,15 +3422,15 @@
       <c r="J15" s="71"/>
       <c r="K15" s="120"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="65"/>
       <c r="C16" s="112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="129">
         <f>ROUND((G17*G6*1000),2)</f>
@@ -3519,15 +3441,15 @@
       <c r="J16" s="71"/>
       <c r="K16" s="120"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="65"/>
       <c r="C17" s="105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="129">
         <v>132.38290799999999</v>
@@ -3537,10 +3459,10 @@
       <c r="J17" s="71"/>
       <c r="K17" s="120"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="65"/>
       <c r="C18" s="112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="78"/>
       <c r="E18" s="78"/>
@@ -3555,15 +3477,15 @@
       <c r="J18" s="71"/>
       <c r="K18" s="116"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
       <c r="C19" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
       <c r="F19" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="79">
         <v>0</v>
@@ -3576,11 +3498,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3595,22 +3512,22 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3622,7 +3539,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -3636,7 +3553,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3648,7 +3565,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>28</v>
@@ -3664,10 +3581,10 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="56" t="s">
         <v>105</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>106</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>53</v>
@@ -3679,10 +3596,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/buildings/buildings_space_heater_heatpump_air_water_network_gas.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_space_heater_heatpump_air_water_network_gas.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9DF1D-20F5-1141-A03D-73E9C21A898E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -35,10 +36,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t>Source</t>
   </si>
@@ -503,17 +510,20 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1286,7 +1296,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1516,6 +1526,7 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1780,6 +1791,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2219,13 +2233,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
@@ -2233,24 +2247,24 @@
     <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -2259,7 +2273,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
@@ -2268,7 +2282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2277,29 +2291,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="81" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="82"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="83"/>
       <c r="C10" s="84"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="83" t="s">
         <v>62</v>
@@ -2308,33 +2322,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="83"/>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="83"/>
       <c r="C13" s="86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="83"/>
       <c r="C14" s="84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="83"/>
       <c r="C15" s="84"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="83" t="s">
         <v>67</v>
@@ -2343,49 +2357,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="83"/>
       <c r="C17" s="88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="83"/>
       <c r="C18" s="89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="83"/>
       <c r="C19" s="90" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="91"/>
       <c r="C20" s="92" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="91"/>
       <c r="C21" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="91"/>
       <c r="C22" s="94" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="91"/>
       <c r="C23" s="95" t="s">
         <v>75</v>
@@ -2398,17 +2412,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
@@ -2423,13 +2437,13 @@
     <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="130" t="s">
         <v>106</v>
       </c>
@@ -2439,7 +2453,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="133"/>
       <c r="C3" s="134"/>
       <c r="D3" s="134"/>
@@ -2447,7 +2461,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="33" customHeight="1">
       <c r="B4" s="136"/>
       <c r="C4" s="137"/>
       <c r="D4" s="137"/>
@@ -2455,10 +2469,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2469,7 +2483,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B7" s="96"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2490,7 +2504,7 @@
       </c>
       <c r="J7" s="103"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2501,7 +2515,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
@@ -2514,7 +2528,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="121" t="s">
         <v>96</v>
@@ -2533,7 +2547,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="127" t="s">
         <v>103</v>
@@ -2552,7 +2566,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
       <c r="C12" s="121" t="s">
         <v>97</v>
@@ -2571,7 +2585,7 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>32</v>
@@ -2591,7 +2605,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>34</v>
@@ -2611,7 +2625,7 @@
       <c r="J14" s="104"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="121" t="s">
         <v>98</v>
@@ -2631,7 +2645,7 @@
       <c r="J15" s="104"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>9</v>
@@ -2651,7 +2665,7 @@
       <c r="J16" s="104"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>37</v>
@@ -2671,7 +2685,7 @@
       <c r="J17" s="104"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>38</v>
@@ -2691,7 +2705,7 @@
       <c r="J18" s="104"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>39</v>
@@ -2712,7 +2726,7 @@
       </c>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>40</v>
@@ -2734,7 +2748,7 @@
       </c>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="37"/>
       <c r="C21" s="74"/>
       <c r="D21" s="99"/>
@@ -2745,7 +2759,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="104"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="14" t="s">
         <v>76</v>
@@ -2758,7 +2772,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="104"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>41</v>
@@ -2780,7 +2794,7 @@
       </c>
       <c r="J23" s="104"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>42</v>
@@ -2801,7 +2815,7 @@
       </c>
       <c r="J24" s="104"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>11</v>
@@ -2822,7 +2836,7 @@
       </c>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>43</v>
@@ -2843,7 +2857,7 @@
       </c>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>44</v>
@@ -2865,7 +2879,7 @@
       </c>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>45</v>
@@ -2887,7 +2901,7 @@
       </c>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>46</v>
@@ -2908,7 +2922,7 @@
       </c>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>49</v>
@@ -2917,19 +2931,19 @@
         <v>2</v>
       </c>
       <c r="E30" s="43">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
-        <v>52</v>
+      <c r="I30" s="139" t="s">
+        <v>107</v>
       </c>
       <c r="J30" s="104"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>36</v>
@@ -2948,7 +2962,7 @@
       </c>
       <c r="J31" s="104"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="37"/>
       <c r="C32" s="33"/>
       <c r="D32" s="19"/>
@@ -2959,7 +2973,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="104"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="14" t="s">
         <v>7</v>
@@ -2972,7 +2986,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>35</v>
@@ -2994,7 +3008,7 @@
       </c>
       <c r="J34" s="104"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="126" t="s">
         <v>47</v>
@@ -3016,7 +3030,7 @@
       </c>
       <c r="J35" s="104"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>48</v>
@@ -3038,7 +3052,7 @@
       </c>
       <c r="J36" s="104"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>33</v>
@@ -3057,7 +3071,7 @@
       </c>
       <c r="J37" s="104"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="117" t="s">
         <v>90</v>
@@ -3076,7 +3090,7 @@
       </c>
       <c r="J38" s="104"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="117" t="s">
         <v>91</v>
@@ -3095,7 +3109,7 @@
       </c>
       <c r="J39" s="104"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
       <c r="C40" s="117" t="s">
         <v>92</v>
@@ -3114,7 +3128,7 @@
       </c>
       <c r="J40" s="104"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
       <c r="C41" s="117" t="s">
         <v>93</v>
@@ -3133,7 +3147,7 @@
       </c>
       <c r="J41" s="104"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="37"/>
       <c r="C42" s="117" t="s">
         <v>94</v>
@@ -3152,7 +3166,7 @@
       </c>
       <c r="J42" s="104"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -3173,8 +3187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:K19"/>
@@ -3183,7 +3197,7 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.42578125" style="60" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="60" customWidth="1"/>
@@ -3198,8 +3212,8 @@
     <col min="12" max="16384" width="10.7109375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -3211,7 +3225,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="109" t="s">
         <v>78</v>
@@ -3231,7 +3245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3243,7 +3257,7 @@
       <c r="J4" s="108"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
         <v>77</v>
@@ -3257,7 +3271,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="B6" s="65"/>
       <c r="C6" s="123" t="s">
         <v>99</v>
@@ -3276,7 +3290,7 @@
       <c r="J6" s="67"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="65"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -3288,7 +3302,7 @@
       <c r="J7" s="71"/>
       <c r="K7" s="110"/>
     </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="17" thickBot="1">
       <c r="B8" s="65"/>
       <c r="C8" s="29" t="s">
         <v>7</v>
@@ -3302,7 +3316,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="65"/>
       <c r="C9" s="75" t="s">
         <v>101</v>
@@ -3321,7 +3335,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="75" t="s">
         <v>100</v>
@@ -3340,7 +3354,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="65"/>
       <c r="C11" s="75" t="s">
         <v>5</v>
@@ -3359,7 +3373,7 @@
       <c r="J11" s="72"/>
       <c r="K11" s="115"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="65"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -3371,7 +3385,7 @@
       <c r="J12" s="72"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="65"/>
       <c r="C13" s="13" t="s">
         <v>82</v>
@@ -3385,7 +3399,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="65"/>
       <c r="C14" s="105" t="s">
         <v>83</v>
@@ -3404,7 +3418,7 @@
       <c r="J14" s="71"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="65"/>
       <c r="C15" s="76" t="s">
         <v>8</v>
@@ -3422,7 +3436,7 @@
       <c r="J15" s="71"/>
       <c r="K15" s="120"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="65"/>
       <c r="C16" s="112" t="s">
         <v>84</v>
@@ -3441,7 +3455,7 @@
       <c r="J16" s="71"/>
       <c r="K16" s="120"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="65"/>
       <c r="C17" s="105" t="s">
         <v>85</v>
@@ -3459,7 +3473,7 @@
       <c r="J17" s="71"/>
       <c r="K17" s="120"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="65"/>
       <c r="C18" s="112" t="s">
         <v>86</v>
@@ -3477,7 +3491,7 @@
       <c r="J18" s="71"/>
       <c r="K18" s="116"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="65"/>
       <c r="C19" s="105" t="s">
         <v>86</v>
@@ -3502,8 +3516,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K5"/>
@@ -3512,7 +3526,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
@@ -3526,8 +3540,8 @@
     <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3539,7 +3553,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -3553,7 +3567,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3565,7 +3579,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>28</v>
